--- a/data/pca/factorExposure/factorExposure_2012-08-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-16.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002481584432033279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001619651145901759</v>
+      </c>
+      <c r="C2">
+        <v>0.02919623099647095</v>
+      </c>
+      <c r="D2">
+        <v>-0.003890809152575336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0003638142978064508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006875360800932256</v>
+      </c>
+      <c r="C4">
+        <v>0.08424841454843728</v>
+      </c>
+      <c r="D4">
+        <v>-0.06565252804499658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005507630105507612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01498661456141952</v>
+      </c>
+      <c r="C6">
+        <v>0.11820973364663</v>
+      </c>
+      <c r="D6">
+        <v>-0.01874518997563384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006185519609345848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005147933182686892</v>
+      </c>
+      <c r="C7">
+        <v>0.05944521859805974</v>
+      </c>
+      <c r="D7">
+        <v>-0.03133735456290538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0009097387721015359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005094454613314869</v>
+      </c>
+      <c r="C8">
+        <v>0.03536190903884389</v>
+      </c>
+      <c r="D8">
+        <v>-0.03643815039434878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0003759592714032498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005964223785700926</v>
+      </c>
+      <c r="C9">
+        <v>0.07257551727480335</v>
+      </c>
+      <c r="D9">
+        <v>-0.07145897120567768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0007712840602389842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002161266025577174</v>
+      </c>
+      <c r="C10">
+        <v>0.0515555944340168</v>
+      </c>
+      <c r="D10">
+        <v>0.1860515330049404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0003965621074986327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006512717304090241</v>
+      </c>
+      <c r="C11">
+        <v>0.0810732870040274</v>
+      </c>
+      <c r="D11">
+        <v>-0.06636163913784611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0005380222304481934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004774482226433018</v>
+      </c>
+      <c r="C12">
+        <v>0.06520483827269945</v>
+      </c>
+      <c r="D12">
+        <v>-0.0502444863579547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002585767225058099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009534780219383835</v>
+      </c>
+      <c r="C13">
+        <v>0.07050973345334165</v>
+      </c>
+      <c r="D13">
+        <v>-0.05707890329874921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001678275611809796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0009063913561048978</v>
+      </c>
+      <c r="C14">
+        <v>0.0437686411929142</v>
+      </c>
+      <c r="D14">
+        <v>-0.01226030444964049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001865602527999319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006257574329073035</v>
+      </c>
+      <c r="C15">
+        <v>0.0406841612626413</v>
+      </c>
+      <c r="D15">
+        <v>-0.02591399111694667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0002860482690653771</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005579598288936382</v>
+      </c>
+      <c r="C16">
+        <v>0.06480944847640133</v>
+      </c>
+      <c r="D16">
+        <v>-0.05693190504122964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002719882501024022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009028930735968161</v>
+      </c>
+      <c r="C20">
+        <v>0.06472910681436952</v>
+      </c>
+      <c r="D20">
+        <v>-0.04972633984955154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005238011543002694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009339823668562378</v>
+      </c>
+      <c r="C21">
+        <v>0.02143916108444387</v>
+      </c>
+      <c r="D21">
+        <v>-0.04228849643402272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02020611021521857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007271058733934615</v>
+      </c>
+      <c r="C22">
+        <v>0.08729234452675498</v>
+      </c>
+      <c r="D22">
+        <v>-0.1194167837953226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01986817359686424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006976907044477623</v>
+      </c>
+      <c r="C23">
+        <v>0.08769921000567868</v>
+      </c>
+      <c r="D23">
+        <v>-0.1205186453456194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0009055935779627757</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.006394361008080343</v>
+      </c>
+      <c r="C24">
+        <v>0.07725513773507915</v>
+      </c>
+      <c r="D24">
+        <v>-0.06575610092061415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002610609156393149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003880116048110874</v>
+      </c>
+      <c r="C25">
+        <v>0.07844855233592377</v>
+      </c>
+      <c r="D25">
+        <v>-0.0634308099009996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001148892909719168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003857281501247243</v>
+      </c>
+      <c r="C26">
+        <v>0.03993088630435403</v>
+      </c>
+      <c r="D26">
+        <v>-0.02009694704060821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006649103851800606</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002032244765113555</v>
+      </c>
+      <c r="C28">
+        <v>0.1013357643311417</v>
+      </c>
+      <c r="D28">
+        <v>0.3268763859491123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0004412661608528479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003592298519442991</v>
+      </c>
+      <c r="C29">
+        <v>0.04736187952504044</v>
+      </c>
+      <c r="D29">
+        <v>-0.01017256858041171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002549582769411148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.01005795315352704</v>
+      </c>
+      <c r="C30">
+        <v>0.1423808719041384</v>
+      </c>
+      <c r="D30">
+        <v>-0.1082411786110662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001986216069349865</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006368389706298898</v>
+      </c>
+      <c r="C31">
+        <v>0.04408564628066555</v>
+      </c>
+      <c r="D31">
+        <v>-0.02903562770488194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003927930163892178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004582981832400592</v>
+      </c>
+      <c r="C32">
+        <v>0.03863878032624293</v>
+      </c>
+      <c r="D32">
+        <v>-0.01768214801769529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0002425705784464459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009150585633831643</v>
+      </c>
+      <c r="C33">
+        <v>0.09102607393862303</v>
+      </c>
+      <c r="D33">
+        <v>-0.06256553328932193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0007940787464679951</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004839908899752714</v>
+      </c>
+      <c r="C34">
+        <v>0.05808726656832576</v>
+      </c>
+      <c r="D34">
+        <v>-0.05777977907188323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.00196814282541962</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005163751077657389</v>
+      </c>
+      <c r="C35">
+        <v>0.04070836580735116</v>
+      </c>
+      <c r="D35">
+        <v>-0.01349008388152863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004547455617478949</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001455033427195193</v>
+      </c>
+      <c r="C36">
+        <v>0.02507529554086299</v>
+      </c>
+      <c r="D36">
+        <v>-0.01929990231580273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002445489186646904</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008823520989322103</v>
+      </c>
+      <c r="C38">
+        <v>0.04098423743067609</v>
+      </c>
+      <c r="D38">
+        <v>-0.01291865818134029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01113804270732048</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001219054281729068</v>
+      </c>
+      <c r="C39">
+        <v>0.113443065005789</v>
+      </c>
+      <c r="D39">
+        <v>-0.08332480432697449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003912780121928693</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003061327179453156</v>
+      </c>
+      <c r="C40">
+        <v>0.09112433834545842</v>
+      </c>
+      <c r="D40">
+        <v>-0.01559605380621146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002417365787815997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007756101059894848</v>
+      </c>
+      <c r="C41">
+        <v>0.04208356958990272</v>
+      </c>
+      <c r="D41">
+        <v>-0.04375833756695865</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001871738015893364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004206330149882997</v>
+      </c>
+      <c r="C43">
+        <v>0.05453207147669593</v>
+      </c>
+      <c r="D43">
+        <v>-0.02739899205655312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007665893550774441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002354135267801328</v>
+      </c>
+      <c r="C44">
+        <v>0.1046541373941644</v>
+      </c>
+      <c r="D44">
+        <v>-0.06328213349201592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001618263371471801</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001346096172207674</v>
+      </c>
+      <c r="C46">
+        <v>0.03331313454306719</v>
+      </c>
+      <c r="D46">
+        <v>-0.03330943049955112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-1.174427594706764e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002945887272865921</v>
+      </c>
+      <c r="C47">
+        <v>0.03461012714830781</v>
+      </c>
+      <c r="D47">
+        <v>-0.01994786352243598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004655571342223638</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.0076662447407421</v>
+      </c>
+      <c r="C48">
+        <v>0.03336766859648329</v>
+      </c>
+      <c r="D48">
+        <v>-0.02761458219688125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005460067155143159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01863168520793772</v>
+      </c>
+      <c r="C49">
+        <v>0.1864359299186225</v>
+      </c>
+      <c r="D49">
+        <v>-0.01206159788211929</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0001423192794329113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004257855800670054</v>
+      </c>
+      <c r="C50">
+        <v>0.04269824880668933</v>
+      </c>
+      <c r="D50">
+        <v>-0.03777916053793721</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0004107821296317889</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003773529090028648</v>
+      </c>
+      <c r="C51">
+        <v>0.02658640953972301</v>
+      </c>
+      <c r="D51">
+        <v>-0.02427799476922522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008754159171016058</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02226089610948515</v>
+      </c>
+      <c r="C53">
+        <v>0.1721943810160642</v>
+      </c>
+      <c r="D53">
+        <v>-0.02028298458695721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003358867237882445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009674474513344222</v>
+      </c>
+      <c r="C54">
+        <v>0.057374432258013</v>
+      </c>
+      <c r="D54">
+        <v>-0.03965160017405151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002026341930729358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01041736402432423</v>
+      </c>
+      <c r="C55">
+        <v>0.108539269889336</v>
+      </c>
+      <c r="D55">
+        <v>-0.03323704273255747</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009175914991226388</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02190354084101518</v>
+      </c>
+      <c r="C56">
+        <v>0.1748631231291383</v>
+      </c>
+      <c r="D56">
+        <v>-0.01312784624210229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001139093630173393</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01681904691326327</v>
+      </c>
+      <c r="C58">
+        <v>0.1061269049701785</v>
+      </c>
+      <c r="D58">
+        <v>-0.0613513680118321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002478553394571816</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009913984776075717</v>
+      </c>
+      <c r="C59">
+        <v>0.1664235287362943</v>
+      </c>
+      <c r="D59">
+        <v>0.3474209988700859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008750218298629139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02714576803184557</v>
+      </c>
+      <c r="C60">
+        <v>0.2245264564727282</v>
+      </c>
+      <c r="D60">
+        <v>-0.01856101257266154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01014783173649656</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001749800548905745</v>
+      </c>
+      <c r="C61">
+        <v>0.09479627456113089</v>
+      </c>
+      <c r="D61">
+        <v>-0.05976784090241719</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.150211097088568</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1536485236846095</v>
+      </c>
+      <c r="C62">
+        <v>0.1012534291634602</v>
+      </c>
+      <c r="D62">
+        <v>-0.01818203310051534</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0009533537426230203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006540520713077433</v>
+      </c>
+      <c r="C63">
+        <v>0.05404608972345716</v>
+      </c>
+      <c r="D63">
+        <v>-0.03247987302010377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01061393576498798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01739730896660173</v>
+      </c>
+      <c r="C64">
+        <v>0.1069030644800283</v>
+      </c>
+      <c r="D64">
+        <v>-0.05273278843719025</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008497312859616505</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01793256390946842</v>
+      </c>
+      <c r="C65">
+        <v>0.119668909848767</v>
+      </c>
+      <c r="D65">
+        <v>-0.0195585518795657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00147463456983518</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01339105856104093</v>
+      </c>
+      <c r="C66">
+        <v>0.1621301924025239</v>
+      </c>
+      <c r="D66">
+        <v>-0.1153297203627587</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005733292794409679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01542670133994613</v>
+      </c>
+      <c r="C67">
+        <v>0.07371260725503316</v>
+      </c>
+      <c r="D67">
+        <v>-0.02574771287844499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004602403992802284</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>8.815805391886787e-05</v>
+      </c>
+      <c r="C68">
+        <v>0.08265161263169585</v>
+      </c>
+      <c r="D68">
+        <v>0.2614190246362844</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0001980408522502044</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00637390838363064</v>
+      </c>
+      <c r="C69">
+        <v>0.05173277668376264</v>
+      </c>
+      <c r="D69">
+        <v>-0.03591694710681308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001489524045581951</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.00264462648707404</v>
+      </c>
+      <c r="C70">
+        <v>0.008809163195917385</v>
+      </c>
+      <c r="D70">
+        <v>0.000981070166589341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0005929061628231386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004931296815164641</v>
+      </c>
+      <c r="C71">
+        <v>0.087102843080214</v>
+      </c>
+      <c r="D71">
+        <v>0.3028827181149991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005523228545559649</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0189698166101167</v>
+      </c>
+      <c r="C72">
+        <v>0.1587048203705912</v>
+      </c>
+      <c r="D72">
+        <v>-0.006168838137042909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0098361128174643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03223463022792142</v>
+      </c>
+      <c r="C73">
+        <v>0.282084897288364</v>
+      </c>
+      <c r="D73">
+        <v>-0.0568700382650682</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005613300838881536</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002056598171714492</v>
+      </c>
+      <c r="C74">
+        <v>0.1034821004202304</v>
+      </c>
+      <c r="D74">
+        <v>-0.03095515707780107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0001542117961227834</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01242056042444803</v>
+      </c>
+      <c r="C75">
+        <v>0.1199530809094529</v>
+      </c>
+      <c r="D75">
+        <v>-0.02622788307095628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01119930914328653</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02255211455934561</v>
+      </c>
+      <c r="C76">
+        <v>0.1458652664068233</v>
+      </c>
+      <c r="D76">
+        <v>-0.05599556468398505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.006743814271626677</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02167706240909317</v>
+      </c>
+      <c r="C77">
+        <v>0.1105934543476381</v>
+      </c>
+      <c r="D77">
+        <v>-0.04508759290758291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.004361310041277894</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01463486254315084</v>
+      </c>
+      <c r="C78">
+        <v>0.1001331738336037</v>
+      </c>
+      <c r="D78">
+        <v>-0.08122040216031166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02763986586978832</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03963567690718431</v>
+      </c>
+      <c r="C79">
+        <v>0.1573388848027474</v>
+      </c>
+      <c r="D79">
+        <v>-0.02907517474668709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006833035164461584</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009962430267393192</v>
+      </c>
+      <c r="C80">
+        <v>0.03930892250584462</v>
+      </c>
+      <c r="D80">
+        <v>-0.0311578998605594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005527593671763763</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0169010074343134</v>
+      </c>
+      <c r="C81">
+        <v>0.1307694553468759</v>
+      </c>
+      <c r="D81">
+        <v>-0.03587565797470026</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008110570968847802</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02026436914742792</v>
+      </c>
+      <c r="C82">
+        <v>0.1366184494057498</v>
+      </c>
+      <c r="D82">
+        <v>-0.03599720815007763</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003759116194483118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01261493219008546</v>
+      </c>
+      <c r="C83">
+        <v>0.06434108651222417</v>
+      </c>
+      <c r="D83">
+        <v>-0.04455392752153341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004537016943898906</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006824556779017967</v>
+      </c>
+      <c r="C84">
+        <v>0.03479363031149531</v>
+      </c>
+      <c r="D84">
+        <v>-0.01495094667005694</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01895518062839145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02920354894749196</v>
+      </c>
+      <c r="C85">
+        <v>0.123465793748105</v>
+      </c>
+      <c r="D85">
+        <v>-0.03838759199642982</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002679980768287062</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003909836186776098</v>
+      </c>
+      <c r="C86">
+        <v>0.05123079181325432</v>
+      </c>
+      <c r="D86">
+        <v>-0.02566220994544692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001677261683345584</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01243499930261605</v>
+      </c>
+      <c r="C87">
+        <v>0.1292760391100161</v>
+      </c>
+      <c r="D87">
+        <v>-0.0703994467180343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.00850159427337879</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002768907562507686</v>
+      </c>
+      <c r="C88">
+        <v>0.06381855618044198</v>
+      </c>
+      <c r="D88">
+        <v>-0.02866040781980784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01118381059514762</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002644569925527724</v>
+      </c>
+      <c r="C89">
+        <v>0.1325349485114564</v>
+      </c>
+      <c r="D89">
+        <v>0.320848586703972</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002056916226345427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005718175723389347</v>
+      </c>
+      <c r="C90">
+        <v>0.1145284510475158</v>
+      </c>
+      <c r="D90">
+        <v>0.3137104601316127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.00279215139204648</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01164607434033624</v>
+      </c>
+      <c r="C91">
+        <v>0.09860179521041815</v>
+      </c>
+      <c r="D91">
+        <v>-0.02766701280602796</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005619880022320528</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-6.58116818992496e-05</v>
+      </c>
+      <c r="C92">
+        <v>0.126905534586959</v>
+      </c>
+      <c r="D92">
+        <v>0.3260844643018995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001619151756296363</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003515710128546061</v>
+      </c>
+      <c r="C93">
+        <v>0.1026115169093452</v>
+      </c>
+      <c r="D93">
+        <v>0.3008845840845017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01044576180165408</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02278936713678709</v>
+      </c>
+      <c r="C94">
+        <v>0.1388109396984544</v>
+      </c>
+      <c r="D94">
+        <v>-0.0517603178067753</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006911379340427347</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01654517961492114</v>
+      </c>
+      <c r="C95">
+        <v>0.121303785541194</v>
+      </c>
+      <c r="D95">
+        <v>-0.06941715104018954</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01726888983399231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03783923910915115</v>
+      </c>
+      <c r="C97">
+        <v>0.2241196822670582</v>
+      </c>
+      <c r="D97">
+        <v>0.004061514955463729</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01220040907028982</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.04048859276491566</v>
+      </c>
+      <c r="C98">
+        <v>0.2620168708676316</v>
+      </c>
+      <c r="D98">
+        <v>-0.03438940791600489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864453597549797</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9801263574926615</v>
+      </c>
+      <c r="C99">
+        <v>-0.1248925204221048</v>
+      </c>
+      <c r="D99">
+        <v>0.02516473571779163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.000467564195491196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003582128245927515</v>
+      </c>
+      <c r="C101">
+        <v>0.04754192014439555</v>
+      </c>
+      <c r="D101">
+        <v>-0.01082528442698981</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
